--- a/GA_bNa_bCa_NaK/Errors4.xlsx
+++ b/GA_bNa_bCa_NaK/Errors4.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>475724.963865398</v>
+        <v>492538.1672524533</v>
       </c>
       <c r="B2" t="n">
-        <v>60035.48600235065</v>
+        <v>8640.957079360078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>493354.1091046826</v>
+        <v>471406.497517139</v>
       </c>
       <c r="B3" t="n">
-        <v>8839.168098961749</v>
+        <v>3748.859677669547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>469452.8422836664</v>
+        <v>460694.2168625708</v>
       </c>
       <c r="B4" t="n">
-        <v>9370.946037984089</v>
+        <v>13712.06269810517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>463954.6793057208</v>
+        <v>468104.4609874934</v>
       </c>
       <c r="B5" t="n">
-        <v>6610.484020645382</v>
+        <v>5237.545070367932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>436641.3441693175</v>
+        <v>455110.8267063271</v>
       </c>
       <c r="B6" t="n">
-        <v>7142.251006503977</v>
+        <v>1966.669067953693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>427534.9217522941</v>
+        <v>447651.4015193314</v>
       </c>
       <c r="B7" t="n">
-        <v>1977.889080036854</v>
+        <v>4405.575961241884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>395524.5632118921</v>
+        <v>438590.4502851196</v>
       </c>
       <c r="B8" t="n">
-        <v>1939.069467013713</v>
+        <v>12680.17388113971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>383288.016587603</v>
+        <v>348714.1627292697</v>
       </c>
       <c r="B9" t="n">
-        <v>1660.643689229269</v>
+        <v>1596.024112370566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>338612.5944113799</v>
+        <v>334052.7801950353</v>
       </c>
       <c r="B10" t="n">
-        <v>2061.848299053001</v>
+        <v>1123.452835300964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>295021.5442312362</v>
+        <v>291637.9900579521</v>
       </c>
       <c r="B11" t="n">
-        <v>1309.630252318302</v>
+        <v>1125.396747436525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>267880.3332276742</v>
+        <v>283379.2619826255</v>
       </c>
       <c r="B12" t="n">
-        <v>1614.027799283682</v>
+        <v>1329.935215877001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>265600.6732033915</v>
+        <v>204448.4634770629</v>
       </c>
       <c r="B13" t="n">
-        <v>2170.777971631724</v>
+        <v>1716.882723847014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>211245.2041371104</v>
+        <v>172174.503603654</v>
       </c>
       <c r="B14" t="n">
-        <v>878.1509858210102</v>
+        <v>1385.164949627345</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>151667.0512669063</v>
+        <v>159478.0413072811</v>
       </c>
       <c r="B15" t="n">
-        <v>820.3433685070385</v>
+        <v>2192.369557164925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104627.4129658934</v>
+        <v>112050.2263894395</v>
       </c>
       <c r="B16" t="n">
-        <v>704.3949609894839</v>
+        <v>1669.242876188582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102561.2296628847</v>
+        <v>85150.70060756811</v>
       </c>
       <c r="B17" t="n">
-        <v>650.6338500281839</v>
+        <v>1827.2841432829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111140.6606217737</v>
+        <v>106228.2084026474</v>
       </c>
       <c r="B18" t="n">
-        <v>611.8266446334486</v>
+        <v>1555.7256788181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80910.6692982792</v>
+        <v>110364.4789420068</v>
       </c>
       <c r="B19" t="n">
-        <v>603.4512985747641</v>
+        <v>1708.382875247806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95195.5675403044</v>
+        <v>89430.63611700624</v>
       </c>
       <c r="B20" t="n">
-        <v>531.2542042738021</v>
+        <v>1593.605481967732</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>93817.82801885909</v>
+        <v>67587.2105362322</v>
       </c>
       <c r="B21" t="n">
-        <v>537.0381113366325</v>
+        <v>1586.897609460092</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82186.35611052184</v>
+        <v>62699.72952823419</v>
       </c>
       <c r="B22" t="n">
-        <v>701.6932079937544</v>
+        <v>1288.556788272667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>78849.3003984301</v>
+        <v>93414.2270516588</v>
       </c>
       <c r="B23" t="n">
-        <v>354.8992296447362</v>
+        <v>1024.414970557958</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>73294.53638700089</v>
+        <v>59917.32753027101</v>
       </c>
       <c r="B24" t="n">
-        <v>406.4038612982948</v>
+        <v>1768.96452019003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>47653.85589039881</v>
+        <v>101052.3116183252</v>
       </c>
       <c r="B25" t="n">
-        <v>421.9147072449675</v>
+        <v>1254.497107108007</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>71190.17276081657</v>
+        <v>70540.61501003517</v>
       </c>
       <c r="B26" t="n">
-        <v>712.4695312930614</v>
+        <v>1523.472440132088</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80134.89168964667</v>
+        <v>64283.22555618789</v>
       </c>
       <c r="B27" t="n">
-        <v>534.2279168097183</v>
+        <v>1794.678315009437</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>64202.4526018938</v>
+        <v>27643.52859989379</v>
       </c>
       <c r="B28" t="n">
-        <v>550.2962754859753</v>
+        <v>1591.800354731249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>48259.67252990353</v>
+        <v>38152.1884112733</v>
       </c>
       <c r="B29" t="n">
-        <v>743.3855272035191</v>
+        <v>1822.015504997213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47612.95206093784</v>
+        <v>26199.92502156718</v>
       </c>
       <c r="B30" t="n">
-        <v>671.1022840492553</v>
+        <v>1817.039458794819</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>60585.71934868272</v>
+        <v>26404.41084400521</v>
       </c>
       <c r="B31" t="n">
-        <v>621.7506223553153</v>
+        <v>1676.030305223889</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>62443.63094420631</v>
+        <v>40320.13577749219</v>
       </c>
       <c r="B32" t="n">
-        <v>568.9131756483954</v>
+        <v>1695.413034825955</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>41546.3496546458</v>
+        <v>14215.54167263624</v>
       </c>
       <c r="B33" t="n">
-        <v>685.5841965012596</v>
+        <v>1542.965588109581</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>53602.3202970026</v>
+        <v>36945.43855534005</v>
       </c>
       <c r="B34" t="n">
-        <v>605.1631790870781</v>
+        <v>1589.882556017207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>57703.11331832293</v>
+        <v>30594.72389671068</v>
       </c>
       <c r="B35" t="n">
-        <v>414.4026627905339</v>
+        <v>1502.049683119511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>53290.81144700268</v>
+        <v>31008.03747499677</v>
       </c>
       <c r="B36" t="n">
-        <v>537.2963774335101</v>
+        <v>1264.586473817793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>50467.35408161274</v>
+        <v>42867.41207033207</v>
       </c>
       <c r="B37" t="n">
-        <v>537.2963774335101</v>
+        <v>1584.767375383854</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>75588.72453825916</v>
+        <v>12454.92180292806</v>
       </c>
       <c r="B38" t="n">
-        <v>631.665774924872</v>
+        <v>1373.47719117444</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>34161.21651531765</v>
+        <v>24606.2100649731</v>
       </c>
       <c r="B39" t="n">
-        <v>461.465043950401</v>
+        <v>1354.810711762258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>52007.61960562049</v>
+        <v>24248.00245896413</v>
       </c>
       <c r="B40" t="n">
-        <v>568.9383741045087</v>
+        <v>1477.476236156061</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>34994.33726930609</v>
+        <v>2557.186442357638</v>
       </c>
       <c r="B41" t="n">
-        <v>371.5978937320256</v>
+        <v>1472.326859807032</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>36727.37465702547</v>
+        <v>38758.23431692108</v>
       </c>
       <c r="B42" t="n">
-        <v>609.8456736940824</v>
+        <v>1261.738539290949</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>62059.28837277088</v>
+        <v>48648.31505763018</v>
       </c>
       <c r="B43" t="n">
-        <v>672.0750878532119</v>
+        <v>1372.777295338492</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48508.62430611529</v>
+        <v>41079.15093171616</v>
       </c>
       <c r="B44" t="n">
-        <v>601.2410772638033</v>
+        <v>1385.857848952719</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>31630.13089094594</v>
+        <v>23866.18147256662</v>
       </c>
       <c r="B45" t="n">
-        <v>474.7070321738458</v>
+        <v>1385.857848952719</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>47175.62887724044</v>
+        <v>33768.15945316435</v>
       </c>
       <c r="B46" t="n">
-        <v>432.6758794277962</v>
+        <v>1458.454952788938</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43550.33024752598</v>
+        <v>18814.44087075263</v>
       </c>
       <c r="B47" t="n">
-        <v>432.6758794277962</v>
+        <v>1458.454952788938</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>42092.53833891864</v>
+        <v>23724.94543387527</v>
       </c>
       <c r="B48" t="n">
-        <v>438.9105202199345</v>
+        <v>1424.588274768491</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>66111.84367361605</v>
+        <v>18810.80947189874</v>
       </c>
       <c r="B49" t="n">
-        <v>597.924269759967</v>
+        <v>1340.619240567049</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59626.1905636486</v>
+        <v>28484.82020373331</v>
       </c>
       <c r="B50" t="n">
-        <v>460.4793659104265</v>
+        <v>1194.115513276338</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>63223.92856779369</v>
+        <v>38914.4129226668</v>
       </c>
       <c r="B51" t="n">
-        <v>523.069687252909</v>
+        <v>1306.63526611209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40581.96215536618</v>
+        <v>25204.48398842214</v>
       </c>
       <c r="B52" t="n">
-        <v>459.8753719138139</v>
+        <v>1330.28659794571</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>55994.68740101787</v>
+        <v>39420.97258132015</v>
       </c>
       <c r="B53" t="n">
-        <v>491.5566359950261</v>
+        <v>1289.889306718523</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>38022.28971013414</v>
+        <v>29386.69874926008</v>
       </c>
       <c r="B54" t="n">
-        <v>409.466088616178</v>
+        <v>1341.966031590987</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>62191.64144565781</v>
+        <v>48312.04705230208</v>
       </c>
       <c r="B55" t="n">
-        <v>439.1684142949202</v>
+        <v>1295.831820917854</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48205.7768333343</v>
+        <v>54968.47666228218</v>
       </c>
       <c r="B56" t="n">
-        <v>434.9393073306593</v>
+        <v>1070.237930704571</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>33484.17896418948</v>
+        <v>47094.35406161635</v>
       </c>
       <c r="B57" t="n">
-        <v>406.3940188052151</v>
+        <v>1359.763682034386</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>78485.60006570481</v>
+        <v>7830.623844914512</v>
       </c>
       <c r="B58" t="n">
-        <v>536.2872686096325</v>
+        <v>1268.020677709215</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66559.74726735825</v>
+        <v>32357.85478680534</v>
       </c>
       <c r="B59" t="n">
-        <v>446.7057850971643</v>
+        <v>1328.116725591173</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31771.74053680367</v>
+        <v>8044.543012546373</v>
       </c>
       <c r="B60" t="n">
-        <v>509.7131387048914</v>
+        <v>1259.867995254631</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>37280.4138004574</v>
+        <v>37549.6544775529</v>
       </c>
       <c r="B61" t="n">
-        <v>555.2754960751852</v>
+        <v>1201.492615623263</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>36765.27836031742</v>
+        <v>35911.94023858872</v>
       </c>
       <c r="B62" t="n">
-        <v>515.2462030428505</v>
+        <v>1266.512838532034</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60624.65432535415</v>
+        <v>22211.0307278999</v>
       </c>
       <c r="B63" t="n">
-        <v>406.8258933763237</v>
+        <v>1294.947280048834</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17851.00232272763</v>
+        <v>35846.35694526757</v>
       </c>
       <c r="B64" t="n">
-        <v>417.1066908796964</v>
+        <v>1286.238832500911</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>29571.05716415318</v>
+        <v>54915.52528349686</v>
       </c>
       <c r="B65" t="n">
-        <v>445.4622024699298</v>
+        <v>1284.796461317889</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>41336.62806192476</v>
+        <v>23608.12758812607</v>
       </c>
       <c r="B66" t="n">
-        <v>462.0816483257213</v>
+        <v>1404.528012765021</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>41238.622889145</v>
+        <v>22019.74356848299</v>
       </c>
       <c r="B67" t="n">
-        <v>413.3054750391485</v>
+        <v>1165.856965310162</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>45030.38523187568</v>
+        <v>33110.57813446904</v>
       </c>
       <c r="B68" t="n">
-        <v>444.8153809796229</v>
+        <v>1275.819456542243</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>42817.95755945289</v>
+        <v>49577.69988275452</v>
       </c>
       <c r="B69" t="n">
-        <v>424.6081185932871</v>
+        <v>1229.550550298031</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>62353.90112451237</v>
+        <v>50212.70873476182</v>
       </c>
       <c r="B70" t="n">
-        <v>433.4458274902964</v>
+        <v>1210.030479199113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16732.65591793223</v>
+        <v>53510.21310283677</v>
       </c>
       <c r="B71" t="n">
-        <v>475.341127929597</v>
+        <v>1210.030479199113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>33643.33805665473</v>
+        <v>55140.59356873693</v>
       </c>
       <c r="B72" t="n">
-        <v>478.9856651362029</v>
+        <v>1157.259496494432</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>23095.52447867917</v>
+        <v>42438.47862064981</v>
       </c>
       <c r="B73" t="n">
-        <v>469.9039139220968</v>
+        <v>1172.628396319769</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>29658.24005135184</v>
+        <v>53034.24002046884</v>
       </c>
       <c r="B74" t="n">
-        <v>458.428458482668</v>
+        <v>1271.838125093317</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>33782.4075799065</v>
+        <v>33216.93823317465</v>
       </c>
       <c r="B75" t="n">
-        <v>501.1694902274451</v>
+        <v>1169.645213190665</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>13931.12555511406</v>
+        <v>24427.9229395726</v>
       </c>
       <c r="B76" t="n">
-        <v>417.7069211773461</v>
+        <v>1295.872243592801</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11350.86482822578</v>
+        <v>17969.39303413451</v>
       </c>
       <c r="B77" t="n">
-        <v>461.6834855651447</v>
+        <v>1292.277401728553</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>22704.43311123085</v>
+        <v>17004.53865000226</v>
       </c>
       <c r="B78" t="n">
-        <v>423.6355627058283</v>
+        <v>1220.777589905776</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>23022.16852588005</v>
+        <v>23815.78405980344</v>
       </c>
       <c r="B79" t="n">
-        <v>420.8670315194199</v>
+        <v>1278.34082382271</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18846.62613259602</v>
+        <v>13346.77104557125</v>
       </c>
       <c r="B80" t="n">
-        <v>454.4844896591561</v>
+        <v>1329.595130322442</v>
       </c>
     </row>
   </sheetData>
